--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313020D0-012D-4C3F-8D90-F221CC887AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EFD25-B85B-45D0-8560-C6F03DB047FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10695" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,19 +282,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C16">
         <v>2484</v>
@@ -1914,7 +1914,7 @@
         <v>2157</v>
       </c>
       <c r="E16">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="F16">
         <v>2768</v>
@@ -1927,7 +1927,7 @@
         <v>2035</v>
       </c>
       <c r="C17">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D17">
         <v>1756</v>
@@ -1954,7 +1954,7 @@
         <v>1733</v>
       </c>
       <c r="E18">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="F18">
         <v>2193</v>
@@ -2113,16 +2113,16 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="2:13" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2146,18 +2146,18 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="2:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2178,15 +2178,15 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="28"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="13"/>
       <c r="L8" s="17" t="s">
         <v>1</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="G13" s="13">
         <f>exp_arms!E16</f>
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
@@ -2298,7 +2298,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13">
         <f>exp_arms!B16</f>
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="F14" s="13">
         <f>exp_arms!C17</f>
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="G14" s="13">
         <f>exp_arms!E17</f>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="G15" s="21">
         <f>exp_arms!E18</f>
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21">
@@ -2381,16 +2381,16 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="2:16" ht="7" customHeight="1" x14ac:dyDescent="0.45">
@@ -2417,16 +2417,16 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="11"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2454,18 +2454,18 @@
         <v>42371</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="11"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2495,16 +2495,16 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="11"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2525,15 +2525,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F21:L21"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E17:L17"/>
     <mergeCell ref="E19:L19"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F21:L21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EFD25-B85B-45D0-8560-C6F03DB047FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF866D14-6D88-4135-8D56-75ABB507E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10695" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -286,14 +287,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1905,59 +1906,59 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>2600</v>
+        <v>1770</v>
       </c>
       <c r="C16">
-        <v>2484</v>
+        <v>1954</v>
       </c>
       <c r="D16">
-        <v>2157</v>
+        <v>1470</v>
       </c>
       <c r="E16">
-        <v>3435</v>
+        <v>2580</v>
       </c>
       <c r="F16">
-        <v>2768</v>
+        <v>1904</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>2035</v>
+        <v>1386</v>
       </c>
       <c r="C17">
-        <v>1908</v>
+        <v>1467</v>
       </c>
       <c r="D17">
-        <v>1756</v>
+        <v>1176</v>
       </c>
       <c r="E17">
-        <v>2711</v>
+        <v>1982</v>
       </c>
       <c r="F17">
-        <v>2218</v>
+        <v>1534</v>
       </c>
       <c r="G17" s="1">
-        <v>6919</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>2000</v>
+        <v>1386</v>
       </c>
       <c r="C18">
-        <v>1855</v>
+        <v>1467</v>
       </c>
       <c r="D18">
-        <v>1733</v>
+        <v>1176</v>
       </c>
       <c r="E18">
-        <v>2652</v>
+        <v>1982</v>
       </c>
       <c r="F18">
-        <v>2193</v>
+        <v>1534</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -2000,16 +2001,16 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
-        <v>19242</v>
+        <v>19246</v>
       </c>
       <c r="C23">
-        <v>19351</v>
+        <v>19348</v>
       </c>
       <c r="D23">
         <v>19207</v>
       </c>
       <c r="E23">
-        <v>19578</v>
+        <v>19583</v>
       </c>
       <c r="F23">
         <v>20455</v>
@@ -2021,11 +2022,11 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <f>B23+21916</f>
-        <v>41158</v>
+        <v>41162</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" ref="C24:G24" si="0">C23+21916</f>
-        <v>41267</v>
+        <v>41264</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -2033,7 +2034,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>41494</v>
+        <v>41499</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
@@ -2142,22 +2143,22 @@
     <row r="6" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="23">
         <f>exp_arms!B24</f>
-        <v>41158</v>
+        <v>41162</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="2:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2178,15 +2179,15 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="13"/>
       <c r="L8" s="17" t="s">
         <v>1</v>
@@ -2280,25 +2281,25 @@
       </c>
       <c r="F13" s="13">
         <f>exp_arms!C16</f>
-        <v>2484</v>
+        <v>1954</v>
       </c>
       <c r="G13" s="13">
         <f>exp_arms!E16</f>
-        <v>3435</v>
+        <v>2580</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
         <f>exp_arms!D16</f>
-        <v>2157</v>
+        <v>1470</v>
       </c>
       <c r="J13" s="13">
         <f>exp_arms!F16</f>
-        <v>2768</v>
+        <v>1904</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13">
         <f>exp_arms!B16</f>
-        <v>2600</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -2310,25 +2311,25 @@
       </c>
       <c r="F14" s="13">
         <f>exp_arms!C17</f>
-        <v>1908</v>
+        <v>1467</v>
       </c>
       <c r="G14" s="13">
         <f>exp_arms!E17</f>
-        <v>2711</v>
+        <v>1982</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13">
         <f>exp_arms!D17</f>
-        <v>1756</v>
+        <v>1176</v>
       </c>
       <c r="J14" s="13">
         <f>exp_arms!F17</f>
-        <v>2218</v>
+        <v>1534</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13">
         <f>exp_arms!B17</f>
-        <v>2035</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -2340,25 +2341,25 @@
       </c>
       <c r="F15" s="21">
         <f>exp_arms!C18</f>
-        <v>1855</v>
+        <v>1467</v>
       </c>
       <c r="G15" s="21">
         <f>exp_arms!E18</f>
-        <v>2652</v>
+        <v>1982</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21">
         <f>exp_arms!D18</f>
-        <v>1733</v>
+        <v>1176</v>
       </c>
       <c r="J15" s="21">
         <f>exp_arms!F18</f>
-        <v>2193</v>
+        <v>1534</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21">
         <f>exp_arms!B18</f>
-        <v>2000</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -2377,7 +2378,7 @@
     <row r="17" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="23">
         <f>exp_arms!C24</f>
-        <v>41267</v>
+        <v>41264</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2413,7 +2414,7 @@
     <row r="19" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
         <f>exp_arms!E24</f>
-        <v>41494</v>
+        <v>41499</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>

--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF866D14-6D88-4135-8D56-75ABB507E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89425D-7711-463E-B392-EF987AE7FAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="consort" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$L$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$I$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Surveys</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">Choice Commitment </t>
-  </si>
-  <si>
-    <t>Forced Soft</t>
-  </si>
-  <si>
-    <t>Choice Soft</t>
   </si>
   <si>
     <t>Start exp</t>
@@ -81,19 +75,7 @@
     <t>Hard Commitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Soft Commitment </t>
-  </si>
-  <si>
     <t>Status-quo</t>
-  </si>
-  <si>
-    <t>Branch/Days</t>
-  </si>
-  <si>
-    <t>Borrowers</t>
-  </si>
-  <si>
-    <t>Surveyed+borrowed</t>
   </si>
   <si>
     <t>Start obs</t>
@@ -105,22 +87,10 @@
     <t>Experiment ends - All arms switched to status-quo</t>
   </si>
   <si>
-    <t>First data transfer from lender to study team</t>
-  </si>
-  <si>
-    <t>Second data transfer from lender to study team</t>
-  </si>
-  <si>
     <t>Forced commitment</t>
   </si>
   <si>
     <t>Choice commitment</t>
-  </si>
-  <si>
-    <t>Forced soft</t>
-  </si>
-  <si>
-    <t>Choice soft</t>
   </si>
   <si>
     <t>: Random assignment begins at branch/day level</t>
@@ -129,17 +99,32 @@
     <t>Experimental Phase</t>
   </si>
   <si>
-    <t xml:space="preserve"> : Branches switched between Status-quo &amp; Choice-commitment</t>
+    <t>Branch-day</t>
   </si>
   <si>
-    <t>Observational Phase</t>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Branch-Days</t>
+  </si>
+  <si>
+    <t>Surveyed&amp;Loan</t>
+  </si>
+  <si>
+    <t>Take-up</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>End of observation period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +142,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,29 +215,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,15 +241,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -283,18 +261,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,15 +296,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -341,8 +319,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="606425" y="914400"/>
-          <a:ext cx="0" cy="3667125"/>
+          <a:off x="568325" y="663575"/>
+          <a:ext cx="9525" cy="3556000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -376,7 +354,7 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -473,66 +451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AC9830-AB5E-4A76-A202-E0648F7A2B61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5295900" y="1390650"/>
-          <a:ext cx="0" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -686,118 +611,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3230E2F7-BDF2-4740-9AA3-AFEC0CD284C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5016500" y="1797050"/>
-          <a:ext cx="0" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A272FF6-B148-4C2F-8E64-C93FAF22BA34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5629275" y="1797050"/>
-          <a:ext cx="0" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -850,8 +669,8 @@
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -869,7 +688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1682750" y="777875"/>
-          <a:ext cx="3060700" cy="0"/>
+          <a:ext cx="1679575" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -911,8 +730,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>949325</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -930,7 +749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1692275" y="1063625"/>
-          <a:ext cx="1895475" cy="0"/>
+          <a:ext cx="898525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -967,13 +786,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -990,8 +809,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685925" y="3733800"/>
-          <a:ext cx="3362325" cy="0"/>
+          <a:off x="1682750" y="3733800"/>
+          <a:ext cx="1755775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1028,14 +847,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>164789</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>768660</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1051,8 +870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1695450" y="4057650"/>
-          <a:ext cx="3714750" cy="0"/>
+          <a:off x="1688789" y="4057650"/>
+          <a:ext cx="3299446" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1088,23 +907,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10103</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>892175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10103</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Connector 32">
+        <xdr:cNvPr id="47" name="Straight Connector 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E596A035-1AFD-41A9-A1D2-C9F592DA0E16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D559D2E-A61B-4D34-8DAB-F1F52FFACEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,94 +931,22 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="4857750"/>
-          <a:ext cx="3473450" cy="0"/>
+          <a:off x="3705803" y="1790700"/>
+          <a:ext cx="0" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>739775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CCC999-A690-4BE6-9BF9-EC64C997887A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1676400" y="4543425"/>
-          <a:ext cx="920750" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1211,79 +958,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B694A7B5-9BC3-4174-B70F-78A2B4496223}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="939800" y="4314825"/>
-          <a:ext cx="285750" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Group 44">
+        <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A16FAE-E2AB-4373-857D-F951DC0FD37B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDB510A-5535-4CC7-89F4-3879A0FDA47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,18 +981,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1066800" y="1301750"/>
-          <a:ext cx="0" cy="2114550"/>
+          <a:off x="869948" y="1292225"/>
+          <a:ext cx="203202" cy="625474"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1C7B63-24BB-44F8-861B-73BBBBD14F75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D51B40C-75CA-62D4-970C-A0E940FED5F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1345,10 +1035,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0683E0F-5738-47AC-83E2-D5E3570AC098}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF63D762-7605-B10B-B0B8-9C003B8A3144}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1391,34 +1081,654 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10103</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10103</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Connector 46">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D559D2E-A61B-4D34-8DAB-F1F52FFACEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA50FAB-077C-4F3F-8DD1-96CA4CA64364}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="984249" y="1292226"/>
+          <a:ext cx="139701" cy="619124"/>
+          <a:chOff x="1047750" y="1435100"/>
+          <a:chExt cx="0" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5D7307-8DFE-84C9-388A-892E1DA51EB7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="1435100"/>
+            <a:ext cx="0" cy="1765300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338FEAD3-C9DD-A244-7260-9DF1D93425C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="3263900"/>
+            <a:ext cx="0" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798D3153-EEC5-4000-8204-5A9AE97EA78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1358900" y="1292225"/>
+          <a:ext cx="0" cy="2117725"/>
+          <a:chOff x="1047750" y="1435100"/>
+          <a:chExt cx="0" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D8B01C-DDC5-8B47-5C48-84E6CC4CFF5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="1435100"/>
+            <a:ext cx="0" cy="1765300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EA770D-638E-EF46-5D99-DB7D0C7F9CE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="3263900"/>
+            <a:ext cx="0" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE10EE42-2D69-4F78-BF13-3656CE4F7AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1504950" y="1292225"/>
+          <a:ext cx="0" cy="2117725"/>
+          <a:chOff x="1047750" y="1435100"/>
+          <a:chExt cx="0" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8C26C9-1A8C-F29D-8CEE-70FBDC60706A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="1435100"/>
+            <a:ext cx="0" cy="1765300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C8E2B0-4F8F-A320-F4B9-2C7BBA13B0BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="3263900"/>
+            <a:ext cx="0" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6E78D-F97C-45E0-A235-D211180652F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1616075" y="1292225"/>
+          <a:ext cx="0" cy="2117725"/>
+          <a:chOff x="1047750" y="1435100"/>
+          <a:chExt cx="0" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94E310F-93F7-62C0-DFEE-16B03B6F48C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="1435100"/>
+            <a:ext cx="0" cy="1765300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5251536-3CF5-5FF6-214B-A1032B442CA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="3263900"/>
+            <a:ext cx="0" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D88921-EAFB-47C1-8937-6B503D101F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1771650" y="3206750"/>
+          <a:ext cx="76200" cy="200025"/>
+          <a:chOff x="1047750" y="1435100"/>
+          <a:chExt cx="0" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126470A3-F0AD-7908-36B9-457ED1DEC043}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="1435100"/>
+            <a:ext cx="0" cy="1765300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D59033-5F36-CDC9-896B-CD233675BCB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="3263900"/>
+            <a:ext cx="0" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5F5246-01D0-0BD1-8227-DCD26A15A4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705803" y="1790700"/>
-          <a:ext cx="0" cy="57150"/>
+          <a:off x="1228724" y="2181225"/>
+          <a:ext cx="676275" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1426,49 +1736,64 @@
         <a:lnRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>102 days</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6928</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6928</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Connector 48">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C3D596-2D23-4748-A10F-CBE2E12C7A06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03CB30E-8AA8-4DA3-893F-CB47DE00D4C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5302828" y="1790700"/>
-          <a:ext cx="0" cy="76200"/>
+          <a:off x="628650" y="1466850"/>
+          <a:ext cx="647700" cy="196850"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1476,17 +1801,286 @@
         <a:lnRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>19 days</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F70D1C-DACB-45F5-95CF-298299BA3531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="344487" y="2614613"/>
+          <a:ext cx="676275" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>376 days</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632855CA-56FF-4322-9080-E1A7BBE99A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1133475" y="3879849"/>
+          <a:ext cx="190500" cy="454023"/>
+          <a:chOff x="1047750" y="1435100"/>
+          <a:chExt cx="0" cy="1857375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3961C5-102F-7CC4-DD32-2E80776FAD91}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="1435100"/>
+            <a:ext cx="0" cy="1765300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5739AAC-D9C4-7C99-3015-400C852B05C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1047750" y="3263900"/>
+            <a:ext cx="0" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6296A6B-1644-4FE2-BA5D-E41E2610A63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="3921125"/>
+          <a:ext cx="704850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050"/>
+            <a:t>235 days</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1789,122 +2383,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
-  <dimension ref="B1:M24"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
       <c r="B16">
         <v>1770</v>
       </c>
@@ -1912,95 +2457,59 @@
         <v>1954</v>
       </c>
       <c r="D16">
-        <v>1470</v>
-      </c>
-      <c r="E16">
         <v>2580</v>
       </c>
-      <c r="F16">
-        <v>1904</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
       <c r="B17">
         <v>1386</v>
       </c>
       <c r="C17">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D17">
-        <v>1176</v>
-      </c>
-      <c r="E17">
         <v>1982</v>
       </c>
-      <c r="F17">
-        <v>1534</v>
-      </c>
-      <c r="G17" s="1">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.97536945812807885</v>
+      </c>
+      <c r="C18">
+        <v>0.96513157894736845</v>
+      </c>
+      <c r="D18">
+        <v>0.9710926016658501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>1386</v>
-      </c>
-      <c r="C18">
-        <v>1467</v>
-      </c>
-      <c r="D18">
-        <v>1176</v>
-      </c>
-      <c r="E18">
-        <v>1982</v>
-      </c>
-      <c r="F18">
-        <v>1534</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>84</v>
-      </c>
-      <c r="C19">
-        <v>80</v>
-      </c>
-      <c r="D19">
-        <v>68</v>
-      </c>
-      <c r="E19">
-        <v>93</v>
-      </c>
-      <c r="F19">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23">
         <v>19246</v>
       </c>
       <c r="C23">
@@ -2019,30 +2528,44 @@
         <v>22064</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <f t="shared" ref="C24:G24" si="0">C23+21916</f>
         <v>41264</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>41123</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>41499</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>42371</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>43980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f>C23-B23</f>
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <f>E23-D23</f>
+        <v>376</v>
+      </c>
+      <c r="E26">
+        <f>E23-C23</f>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:P24"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2068,477 +2591,311 @@
     <col min="3" max="3" width="4.7265625" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1796875" customWidth="1"/>
     <col min="8" max="8" width="1.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" customWidth="1"/>
-    <col min="11" max="11" width="2.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="2:13" ht="19" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="23">
+      <c r="C2" s="14"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="19">
         <f>exp_arms!D24</f>
         <v>41123</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="2:13" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="23"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="23">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="15"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="19">
         <f>exp_arms!B24</f>
         <v>41162</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="2:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="24"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="17" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="16"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="24"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="24"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="16"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="16"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="13">
-        <f>exp_arms!C19</f>
+      <c r="G10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6">
+        <f>exp_arms!C15</f>
         <v>80</v>
       </c>
-      <c r="G12" s="13">
-        <f>exp_arms!E19</f>
+      <c r="G12" s="6">
+        <f>exp_arms!D15</f>
         <v>93</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13">
-        <f>exp_arms!D19</f>
-        <v>68</v>
-      </c>
-      <c r="J12" s="13">
-        <f>exp_arms!F19</f>
-        <v>82</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13">
-        <f>exp_arms!B19</f>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <f>exp_arms!B15</f>
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="24"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="13">
+    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="16"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6">
         <f>exp_arms!C16</f>
         <v>1954</v>
       </c>
-      <c r="G13" s="13">
-        <f>exp_arms!E16</f>
+      <c r="G13" s="6">
+        <f>exp_arms!D16</f>
         <v>2580</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
-        <f>exp_arms!D16</f>
-        <v>1470</v>
-      </c>
-      <c r="J13" s="13">
-        <f>exp_arms!F16</f>
-        <v>1904</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <f>exp_arms!B16</f>
         <v>1770</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="24"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="16"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="6">
+        <f>ROUND(exp_arms!C17/exp_arms!C18,0)</f>
+        <v>1522</v>
+      </c>
+      <c r="G14" s="6">
+        <f>ROUND(exp_arms!D17/exp_arms!D18,0)</f>
+        <v>2041</v>
+      </c>
+      <c r="I14" s="6">
+        <f>ROUND(exp_arms!B17/exp_arms!B18,0)</f>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="16"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13">
         <f>exp_arms!C17</f>
-        <v>1467</v>
-      </c>
-      <c r="G14" s="13">
-        <f>exp_arms!E17</f>
+        <v>1469</v>
+      </c>
+      <c r="G15" s="13">
+        <f>exp_arms!D17</f>
         <v>1982</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13">
-        <f>exp_arms!D17</f>
-        <v>1176</v>
-      </c>
-      <c r="J14" s="13">
-        <f>exp_arms!F17</f>
-        <v>1534</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
         <f>exp_arms!B17</f>
         <v>1386</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="24"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="21">
-        <f>exp_arms!C18</f>
-        <v>1467</v>
-      </c>
-      <c r="G15" s="21">
-        <f>exp_arms!E18</f>
-        <v>1982</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21">
-        <f>exp_arms!D18</f>
-        <v>1176</v>
-      </c>
-      <c r="J15" s="21">
-        <f>exp_arms!F18</f>
-        <v>1534</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21">
-        <f>exp_arms!B18</f>
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="24"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="23">
+    <row r="16" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="16"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="19">
         <f>exp_arms!C24</f>
         <v>41264</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="2:16" ht="7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="23"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="23">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="19"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" ht="9.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="19">
         <f>exp_arms!E24</f>
         <v>41499</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="24"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="23">
-        <f>exp_arms!F24</f>
-        <v>42371</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="E21" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="23"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="23">
-        <f>exp_arms!G24</f>
-        <v>43980</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="16"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E23:L23"/>
+  <mergeCells count="5">
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="11" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="11" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89425D-7711-463E-B392-EF987AE7FAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$I$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28" uniqueCount="26">
   <si>
     <t>Surveys</t>
   </si>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,62 +217,62 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -310,7 +310,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A416620F-0C5C-4B51-A667-453DFF2BB83C}"/>
             </a:ext>
           </a:extLst>
@@ -363,7 +363,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9A4331-B524-45B5-84F6-97E2CF83A495}"/>
             </a:ext>
           </a:extLst>
@@ -413,7 +413,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9AEC2A-9C9C-404D-8509-E2DD361629AC}"/>
             </a:ext>
           </a:extLst>
@@ -466,7 +466,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9548A1A3-F8F5-4402-8534-3B22BF432855}"/>
             </a:ext>
           </a:extLst>
@@ -519,7 +519,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55222A38-23FF-470F-83EB-A9B6A8C7D268}"/>
             </a:ext>
           </a:extLst>
@@ -572,7 +572,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFFD6FF-3E05-4350-9EF3-8AB72D91B261}"/>
             </a:ext>
           </a:extLst>
@@ -625,7 +625,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E3D091-9BC9-475C-8223-2D99D48B0D4D}"/>
             </a:ext>
           </a:extLst>
@@ -678,7 +678,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015997AB-EE1F-431B-9142-F793EAE16250}"/>
             </a:ext>
           </a:extLst>
@@ -739,7 +739,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Straight Connector 26">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954B73B5-7C61-41D7-BB5E-2F49B99C2D9F}"/>
             </a:ext>
           </a:extLst>
@@ -800,7 +800,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Straight Connector 28">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056EB16B-5479-4309-9604-0E7906B7EFE1}"/>
             </a:ext>
           </a:extLst>
@@ -861,7 +861,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Straight Connector 30">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8055F66-65B0-47EA-9823-F97FF4A4259D}"/>
             </a:ext>
           </a:extLst>
@@ -922,7 +922,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D559D2E-A61B-4D34-8DAB-F1F52FFACEBC}"/>
             </a:ext>
           </a:extLst>
@@ -972,7 +972,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDB510A-5535-4CC7-89F4-3879A0FDA47D}"/>
             </a:ext>
           </a:extLst>
@@ -1096,7 +1096,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA50FAB-077C-4F3F-8DD1-96CA4CA64364}"/>
             </a:ext>
           </a:extLst>
@@ -1220,7 +1220,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798D3153-EEC5-4000-8204-5A9AE97EA78F}"/>
             </a:ext>
           </a:extLst>
@@ -1344,7 +1344,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE10EE42-2D69-4F78-BF13-3656CE4F7AFE}"/>
             </a:ext>
           </a:extLst>
@@ -1468,7 +1468,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6E78D-F97C-45E0-A235-D211180652F9}"/>
             </a:ext>
           </a:extLst>
@@ -1592,7 +1592,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="25" name="Group 24">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D88921-EAFB-47C1-8937-6B503D101F6F}"/>
             </a:ext>
           </a:extLst>
@@ -1716,7 +1716,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5F5246-01D0-0BD1-8227-DCD26A15A4C3}"/>
             </a:ext>
           </a:extLst>
@@ -1747,7 +1747,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1781,7 +1781,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03CB30E-8AA8-4DA3-893F-CB47DE00D4C1}"/>
             </a:ext>
           </a:extLst>
@@ -1812,7 +1812,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1846,7 +1846,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F70D1C-DACB-45F5-95CF-298299BA3531}"/>
             </a:ext>
           </a:extLst>
@@ -1877,7 +1877,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1911,7 +1911,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="35" name="Group 34">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632855CA-56FF-4322-9080-E1A7BBE99A5C}"/>
             </a:ext>
           </a:extLst>
@@ -2035,7 +2035,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Rectangle 37">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6296A6B-1644-4FE2-BA5D-E41E2610A63A}"/>
             </a:ext>
           </a:extLst>
@@ -2066,7 +2066,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -2087,7 +2087,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2238,7 +2238,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2262,9 +2262,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2288,7 +2288,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2323,7 +2323,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2341,7 +2341,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2366,7 +2366,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2382,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2391,37 +2391,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="11.1796875" customWidth="true"/>
+    <col min="5" max="6" width="10.453125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="10.1796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="7.36328125" style="1" bestFit="true" customWidth="true"/>
     <col min="9" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="27" customHeight="true" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="26.5" customHeight="true" x14ac:dyDescent="0.35">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2474,21 +2474,21 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.97536945812807885</v>
+        <v>0.9753694581280788</v>
       </c>
       <c r="C18">
-        <v>0.96513157894736845</v>
+        <v>0.9651315789473685</v>
       </c>
       <c r="D18">
         <v>0.9710926016658501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19246</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>22064</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
@@ -2554,7 +2554,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="C26">
         <f>C23-B23</f>
         <v>102</v>
@@ -2574,32 +2574,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD8D491-A531-4985-B538-0A86893835BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD8D491-A531-4985-B538-0A86893835BA}">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="1.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="true"/>
+    <col min="2" max="2" width="14.1796875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.1796875" customWidth="true"/>
+    <col min="5" max="5" width="22.6328125" customWidth="true"/>
+    <col min="6" max="6" width="22.7265625" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="15.1796875" customWidth="true"/>
+    <col min="8" max="8" width="1.7265625" customWidth="true"/>
+    <col min="9" max="9" width="12.81640625" customWidth="true"/>
+    <col min="10" max="10" width="16.7265625" customWidth="true"/>
+    <col min="12" max="12" width="8.7265625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" ht="19" thickBot="true" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" ht="19" thickTop="true" x14ac:dyDescent="0.45">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2621,7 +2621,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="19">
         <f>exp_arms!D24</f>
         <v>41123</v>
@@ -2636,7 +2636,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" ht="5.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B5" s="15"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2647,7 +2647,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" ht="18.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B6" s="19">
         <f>exp_arms!B24</f>
         <v>41162</v>
@@ -2664,7 +2664,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" ht="20.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2674,7 +2674,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" ht="19" thickBot="true" x14ac:dyDescent="0.5">
       <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="E8" s="7"/>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" ht="13.5" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2697,7 +2697,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" ht="36" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2713,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" ht="8.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2723,7 +2723,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2744,7 +2744,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2765,7 +2765,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2785,7 +2785,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2806,7 +2806,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2816,7 +2816,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="19">
         <f>exp_arms!C24</f>
         <v>41264</v>
@@ -2831,7 +2831,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="2:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" ht="24.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2841,7 +2841,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="9.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" ht="9.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2852,7 +2852,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B20" s="19">
         <f>exp_arms!E24</f>
         <v>41499</v>
@@ -2867,7 +2867,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" ht="19.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2877,7 +2877,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2893,8 +2893,8 @@
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="F6:I6"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <printOptions horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
   <pageSetup paperSize="11" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -2389,7 +2389,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.26953125" bestFit="true" customWidth="true"/>
     <col min="3" max="3" width="11.1796875" customWidth="true"/>
@@ -2399,29 +2399,29 @@
     <col min="9" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="27" customHeight="true" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="27" customHeight="true" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="26.5" customHeight="true" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="26.5" customHeight="true" x14ac:dyDescent="0.35">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="14" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2474,21 +2474,21 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.9753694581280788</v>
+        <v>0.97536945812807885</v>
       </c>
       <c r="C18">
-        <v>0.9651315789473685</v>
+        <v>0.96513157894736845</v>
       </c>
       <c r="D18">
         <v>0.9710926016658501</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19246</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>22064</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
@@ -2554,7 +2554,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.35">
       <c r="C26">
         <f>C23-B23</f>
         <v>102</v>
@@ -2584,7 +2584,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="true"/>
     <col min="2" max="2" width="14.1796875" bestFit="true" customWidth="true"/>
@@ -2599,7 +2599,7 @@
     <col min="12" max="12" width="8.7265625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" ht="19" thickBot="true" x14ac:dyDescent="0.5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="19" thickBot="true" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" ht="19" thickTop="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" ht="19" thickTop="true" x14ac:dyDescent="0.45">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2621,7 +2621,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="19">
         <f>exp_arms!D24</f>
         <v>41123</v>
@@ -2636,7 +2636,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" ht="5.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="5.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B5" s="15"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2647,7 +2647,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="18.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" ht="18.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B6" s="19">
         <f>exp_arms!B24</f>
         <v>41162</v>
@@ -2664,7 +2664,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" ht="20.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" ht="20.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2674,7 +2674,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" ht="19" thickBot="true" x14ac:dyDescent="0.5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" ht="19" thickBot="true" x14ac:dyDescent="0.5">
       <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="E8" s="7"/>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" ht="13.5" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2697,7 +2697,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" ht="36" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" ht="36" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2713,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="8.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" ht="8.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2723,7 +2723,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2744,7 +2744,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2765,7 +2765,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="14" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2785,7 +2785,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="15" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2806,7 +2806,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="16" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2816,7 +2816,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="19">
         <f>exp_arms!C24</f>
         <v>41264</v>
@@ -2831,7 +2831,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" ht="24.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" ht="24.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2841,7 +2841,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" ht="9.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" ht="9.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2852,7 +2852,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B20" s="19">
         <f>exp_arms!E24</f>
         <v>41499</v>
@@ -2867,7 +2867,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" ht="19.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" ht="19.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2877,7 +2877,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" ht="18.5" x14ac:dyDescent="0.45">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>

--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89425D-7711-463E-B392-EF987AE7FAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797D648-2C68-46EB-84FA-ED446858AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-19575" yWindow="-13080" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$I$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Surveys</t>
   </si>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,62 +217,62 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -310,7 +310,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A416620F-0C5C-4B51-A667-453DFF2BB83C}"/>
             </a:ext>
           </a:extLst>
@@ -363,7 +363,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9A4331-B524-45B5-84F6-97E2CF83A495}"/>
             </a:ext>
           </a:extLst>
@@ -413,7 +413,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9AEC2A-9C9C-404D-8509-E2DD361629AC}"/>
             </a:ext>
           </a:extLst>
@@ -466,7 +466,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9548A1A3-F8F5-4402-8534-3B22BF432855}"/>
             </a:ext>
           </a:extLst>
@@ -519,7 +519,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55222A38-23FF-470F-83EB-A9B6A8C7D268}"/>
             </a:ext>
           </a:extLst>
@@ -572,7 +572,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFFD6FF-3E05-4350-9EF3-8AB72D91B261}"/>
             </a:ext>
           </a:extLst>
@@ -625,7 +625,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E3D091-9BC9-475C-8223-2D99D48B0D4D}"/>
             </a:ext>
           </a:extLst>
@@ -678,7 +678,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015997AB-EE1F-431B-9142-F793EAE16250}"/>
             </a:ext>
           </a:extLst>
@@ -739,7 +739,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Straight Connector 26">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954B73B5-7C61-41D7-BB5E-2F49B99C2D9F}"/>
             </a:ext>
           </a:extLst>
@@ -800,7 +800,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Straight Connector 28">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056EB16B-5479-4309-9604-0E7906B7EFE1}"/>
             </a:ext>
           </a:extLst>
@@ -861,7 +861,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Straight Connector 30">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8055F66-65B0-47EA-9823-F97FF4A4259D}"/>
             </a:ext>
           </a:extLst>
@@ -922,7 +922,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D559D2E-A61B-4D34-8DAB-F1F52FFACEBC}"/>
             </a:ext>
           </a:extLst>
@@ -972,7 +972,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDB510A-5535-4CC7-89F4-3879A0FDA47D}"/>
             </a:ext>
           </a:extLst>
@@ -1096,7 +1096,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA50FAB-077C-4F3F-8DD1-96CA4CA64364}"/>
             </a:ext>
           </a:extLst>
@@ -1220,7 +1220,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798D3153-EEC5-4000-8204-5A9AE97EA78F}"/>
             </a:ext>
           </a:extLst>
@@ -1344,7 +1344,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE10EE42-2D69-4F78-BF13-3656CE4F7AFE}"/>
             </a:ext>
           </a:extLst>
@@ -1468,7 +1468,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6E78D-F97C-45E0-A235-D211180652F9}"/>
             </a:ext>
           </a:extLst>
@@ -1592,7 +1592,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="25" name="Group 24">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D88921-EAFB-47C1-8937-6B503D101F6F}"/>
             </a:ext>
           </a:extLst>
@@ -1716,7 +1716,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5F5246-01D0-0BD1-8227-DCD26A15A4C3}"/>
             </a:ext>
           </a:extLst>
@@ -1747,7 +1747,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1781,7 +1781,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03CB30E-8AA8-4DA3-893F-CB47DE00D4C1}"/>
             </a:ext>
           </a:extLst>
@@ -1812,7 +1812,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1846,7 +1846,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F70D1C-DACB-45F5-95CF-298299BA3531}"/>
             </a:ext>
           </a:extLst>
@@ -1877,7 +1877,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1911,7 +1911,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="35" name="Group 34">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632855CA-56FF-4322-9080-E1A7BBE99A5C}"/>
             </a:ext>
           </a:extLst>
@@ -2035,7 +2035,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Rectangle 37">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6296A6B-1644-4FE2-BA5D-E41E2610A63A}"/>
             </a:ext>
           </a:extLst>
@@ -2066,7 +2066,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -2087,7 +2087,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2238,7 +2238,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2262,9 +2262,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2288,7 +2288,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2323,7 +2323,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2341,7 +2341,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2366,7 +2366,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2382,46 +2382,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="11.1796875" customWidth="true"/>
-    <col min="5" max="6" width="10.453125" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="true"/>
-    <col min="8" max="8" width="7.36328125" style="1" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="27" customHeight="true" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="26.5" customHeight="true" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="3"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.9710926016658501</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19246</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>22064</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
@@ -2554,7 +2554,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26">
         <f>C23-B23</f>
         <v>102</v>
@@ -2574,32 +2574,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD8D491-A531-4985-B538-0A86893835BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD8D491-A531-4985-B538-0A86893835BA}">
   <sheetPr>
-    <pageSetUpPr fitToPage="true"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="true"/>
-    <col min="2" max="2" width="14.1796875" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="4.7265625" customWidth="true"/>
-    <col min="4" max="4" width="11.1796875" customWidth="true"/>
-    <col min="5" max="5" width="22.6328125" customWidth="true"/>
-    <col min="6" max="6" width="22.7265625" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="15.1796875" customWidth="true"/>
-    <col min="8" max="8" width="1.7265625" customWidth="true"/>
-    <col min="9" max="9" width="12.81640625" customWidth="true"/>
-    <col min="10" max="10" width="16.7265625" customWidth="true"/>
-    <col min="12" max="12" width="8.7265625" customWidth="true"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="1.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="19" thickBot="true" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2609,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" ht="19" thickTop="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2621,7 +2619,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="19">
         <f>exp_arms!D24</f>
         <v>41123</v>
@@ -2636,7 +2634,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="5.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2647,7 +2645,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" ht="18.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="19">
         <f>exp_arms!B24</f>
         <v>41162</v>
@@ -2664,7 +2662,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" ht="20.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2674,7 +2672,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" ht="19" thickBot="true" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="E8" s="7"/>
@@ -2687,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" ht="13.5" customHeight="true" thickTop="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2697,7 +2695,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" ht="36" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2713,7 +2711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" ht="8.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2723,7 +2721,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2744,7 +2742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2765,7 +2763,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2785,7 +2783,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2806,7 +2804,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2816,7 +2814,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="19">
         <f>exp_arms!C24</f>
         <v>41264</v>
@@ -2831,7 +2829,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" ht="24.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2841,7 +2839,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" ht="9.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" ht="9.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2852,7 +2850,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B20" s="19">
         <f>exp_arms!E24</f>
         <v>41499</v>
@@ -2867,7 +2865,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" ht="19.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2877,7 +2875,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2893,8 +2891,8 @@
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="F6:I6"/>
   </mergeCells>
-  <printOptions horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797D648-2C68-46EB-84FA-ED446858AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653878F0-B486-4E69-A862-410556D8FA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="-13080" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2955" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
@@ -981,8 +981,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="869948" y="1292225"/>
-          <a:ext cx="203202" cy="625474"/>
+          <a:off x="838198" y="1311275"/>
+          <a:ext cx="209552" cy="631824"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1105,8 +1105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="984249" y="1292226"/>
-          <a:ext cx="139701" cy="619124"/>
+          <a:off x="952499" y="1311276"/>
+          <a:ext cx="142876" cy="631824"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1229,8 +1229,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1358900" y="1292225"/>
-          <a:ext cx="0" cy="2117725"/>
+          <a:off x="1333500" y="1311275"/>
+          <a:ext cx="0" cy="2124075"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1353,8 +1353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1504950" y="1292225"/>
-          <a:ext cx="0" cy="2117725"/>
+          <a:off x="1447800" y="1311275"/>
+          <a:ext cx="0" cy="2124075"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1477,8 +1477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1616075" y="1292225"/>
-          <a:ext cx="0" cy="2117725"/>
+          <a:off x="1539875" y="1311275"/>
+          <a:ext cx="0" cy="2124075"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1579,12 +1579,12 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1601,8 +1601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1771650" y="3206750"/>
-          <a:ext cx="76200" cy="200025"/>
+          <a:off x="1695450" y="1314450"/>
+          <a:ext cx="171450" cy="2124075"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1704,11 +1704,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>695324</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1725,8 +1725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228724" y="2181225"/>
-          <a:ext cx="676275" cy="190500"/>
+          <a:off x="1200149" y="2181225"/>
+          <a:ext cx="752476" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1920,8 +1920,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1133475" y="3879849"/>
-          <a:ext cx="190500" cy="454023"/>
+          <a:off x="1101725" y="3908424"/>
+          <a:ext cx="190500" cy="434973"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -2385,43 +2385,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.9710926016658501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19246</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>22064</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
@@ -2554,7 +2554,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>C23-B23</f>
         <v>102</v>
@@ -2580,24 +2580,26 @@
   </sheetPr>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="1.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2611,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2619,7 +2621,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <f>exp_arms!D24</f>
         <v>41123</v>
@@ -2634,7 +2636,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="5.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2645,7 +2647,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <f>exp_arms!B24</f>
         <v>41162</v>
@@ -2662,7 +2664,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2672,7 +2674,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="E8" s="7"/>
@@ -2685,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2695,7 +2697,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2711,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2721,7 +2723,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2742,7 +2744,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2763,7 +2765,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2783,7 +2785,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2804,7 +2806,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2814,7 +2816,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <f>exp_arms!C24</f>
         <v>41264</v>
@@ -2829,7 +2831,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="2:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2839,7 +2841,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="9.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2850,7 +2852,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <f>exp_arms!E24</f>
         <v>41499</v>
@@ -2865,7 +2867,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2875,7 +2877,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>

--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653878F0-B486-4E69-A862-410556D8FA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37DFF-6E76-4E48-B45E-018E7A5DD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2955" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
     <sheet name="consort" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$I$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -296,15 +296,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -318,9 +318,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="568325" y="663575"/>
-          <a:ext cx="9525" cy="3556000"/>
+        <a:xfrm flipH="1">
+          <a:off x="546100" y="673100"/>
+          <a:ext cx="15875" cy="3790950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -981,8 +981,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838198" y="1311275"/>
-          <a:ext cx="209552" cy="631824"/>
+          <a:off x="860423" y="1298575"/>
+          <a:ext cx="209552" cy="628649"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1105,8 +1105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="952499" y="1311276"/>
-          <a:ext cx="142876" cy="631824"/>
+          <a:off x="974724" y="1298576"/>
+          <a:ext cx="142876" cy="628649"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1229,8 +1229,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1333500" y="1311275"/>
-          <a:ext cx="0" cy="2124075"/>
+          <a:off x="1355725" y="1298575"/>
+          <a:ext cx="0" cy="2111375"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1353,8 +1353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1447800" y="1311275"/>
-          <a:ext cx="0" cy="2124075"/>
+          <a:off x="1498600" y="1298575"/>
+          <a:ext cx="0" cy="2111375"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1477,8 +1477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1539875" y="1311275"/>
-          <a:ext cx="0" cy="2124075"/>
+          <a:off x="1609725" y="1298575"/>
+          <a:ext cx="0" cy="2111375"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1601,8 +1601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1695450" y="1314450"/>
-          <a:ext cx="171450" cy="2124075"/>
+          <a:off x="1765300" y="1301750"/>
+          <a:ext cx="187325" cy="2111375"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1920,8 +1920,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1101725" y="3908424"/>
-          <a:ext cx="190500" cy="434973"/>
+          <a:off x="1123950" y="3876674"/>
+          <a:ext cx="190500" cy="447673"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -2385,43 +2385,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.9710926016658501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19246</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>22064</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
@@ -2554,7 +2554,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26">
         <f>C23-B23</f>
         <v>102</v>
@@ -2580,26 +2580,26 @@
   </sheetPr>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="1.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2621,7 +2621,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="19">
         <f>exp_arms!D24</f>
         <v>41123</v>
@@ -2636,7 +2636,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="5.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2647,7 +2647,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="19">
         <f>exp_arms!B24</f>
         <v>41162</v>
@@ -2664,7 +2664,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="2:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2674,7 +2674,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="16"/>
       <c r="C8" s="7"/>
       <c r="E8" s="7"/>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2697,7 +2697,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="16"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2713,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2723,7 +2723,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B12" s="16"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2744,7 +2744,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2765,7 +2765,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2785,7 +2785,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="16"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2806,7 +2806,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="16"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2816,7 +2816,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="19">
         <f>exp_arms!C24</f>
         <v>41264</v>
@@ -2831,7 +2831,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="2:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="24.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="19"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2841,7 +2841,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="9.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2852,7 +2852,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B20" s="19">
         <f>exp_arms!E24</f>
         <v>41499</v>
@@ -2867,7 +2867,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2877,7 +2877,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2895,7 +2895,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="11" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="11" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tables/consort.xlsx
+++ b/Tables/consort.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37DFF-6E76-4E48-B45E-018E7A5DD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666EC4E4-A95D-41E8-8271-5F8C68485BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exp_arms" sheetId="1" r:id="rId1"/>
     <sheet name="consort" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">consort!$B$2:$I$20</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="25">
   <si>
     <t>Surveys</t>
   </si>
@@ -72,9 +69,6 @@
     <t>6 Branches in Mexico City selected to be part of study</t>
   </si>
   <si>
-    <t>Hard Commitment</t>
-  </si>
-  <si>
     <t>Status-quo</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
   </si>
   <si>
     <t>Experiment ends - All arms switched to status-quo</t>
-  </si>
-  <si>
-    <t>Forced commitment</t>
-  </si>
-  <si>
-    <t>Choice commitment</t>
   </si>
   <si>
     <t>: Random assignment begins at branch/day level</t>
@@ -108,9 +96,6 @@
     <t>Branch-Days</t>
   </si>
   <si>
-    <t>Surveyed&amp;Loan</t>
-  </si>
-  <si>
     <t>Take-up</t>
   </si>
   <si>
@@ -119,12 +104,21 @@
   <si>
     <t>End of observation period</t>
   </si>
+  <si>
+    <t>Mandatory structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice </t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,62 +211,60 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,7 +284,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -303,14 +295,14 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A416620F-0C5C-4B51-A667-453DFF2BB83C}"/>
             </a:ext>
           </a:extLst>
@@ -318,7 +310,7 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
+        <a:xfrm flipH="true">
           <a:off x="546100" y="673100"/>
           <a:ext cx="15875" cy="3790950"/>
         </a:xfrm>
@@ -355,7 +347,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -363,7 +355,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9A4331-B524-45B5-84F6-97E2CF83A495}"/>
             </a:ext>
           </a:extLst>
@@ -413,7 +405,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9AEC2A-9C9C-404D-8509-E2DD361629AC}"/>
             </a:ext>
           </a:extLst>
@@ -466,7 +458,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9548A1A3-F8F5-4402-8534-3B22BF432855}"/>
             </a:ext>
           </a:extLst>
@@ -519,7 +511,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55222A38-23FF-470F-83EB-A9B6A8C7D268}"/>
             </a:ext>
           </a:extLst>
@@ -572,7 +564,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFFD6FF-3E05-4350-9EF3-8AB72D91B261}"/>
             </a:ext>
           </a:extLst>
@@ -625,7 +617,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E3D091-9BC9-475C-8223-2D99D48B0D4D}"/>
             </a:ext>
           </a:extLst>
@@ -664,21 +656,21 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015997AB-EE1F-431B-9142-F793EAE16250}"/>
             </a:ext>
           </a:extLst>
@@ -687,8 +679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1682750" y="777875"/>
-          <a:ext cx="1679575" cy="0"/>
+          <a:off x="1714500" y="800100"/>
+          <a:ext cx="1587500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -725,13 +717,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>644525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -739,7 +731,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Straight Connector 26">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954B73B5-7C61-41D7-BB5E-2F49B99C2D9F}"/>
             </a:ext>
           </a:extLst>
@@ -748,8 +740,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1692275" y="1063625"/>
-          <a:ext cx="898525" cy="0"/>
+          <a:off x="1641475" y="1073150"/>
+          <a:ext cx="850900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -785,22 +777,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1035050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Straight Connector 28">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056EB16B-5479-4309-9604-0E7906B7EFE1}"/>
             </a:ext>
           </a:extLst>
@@ -809,8 +801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1682750" y="3733800"/>
-          <a:ext cx="1755775" cy="0"/>
+          <a:off x="1911350" y="3511550"/>
+          <a:ext cx="1663700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -848,20 +840,20 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>164789</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>768660</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Straight Connector 30">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8055F66-65B0-47EA-9823-F97FF4A4259D}"/>
             </a:ext>
           </a:extLst>
@@ -922,7 +914,7 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D559D2E-A61B-4D34-8DAB-F1F52FFACEBC}"/>
             </a:ext>
           </a:extLst>
@@ -972,7 +964,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDB510A-5535-4CC7-89F4-3879A0FDA47D}"/>
             </a:ext>
           </a:extLst>
@@ -981,8 +973,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="860423" y="1298575"/>
-          <a:ext cx="209552" cy="628649"/>
+          <a:off x="655252" y="1313903"/>
+          <a:ext cx="209552" cy="632152"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1096,7 +1088,7 @@
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA50FAB-077C-4F3F-8DD1-96CA4CA64364}"/>
             </a:ext>
           </a:extLst>
@@ -1105,8 +1097,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="974724" y="1298576"/>
-          <a:ext cx="142876" cy="628649"/>
+          <a:off x="769553" y="1313904"/>
+          <a:ext cx="142876" cy="632152"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1213,14 +1205,14 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798D3153-EEC5-4000-8204-5A9AE97EA78F}"/>
             </a:ext>
           </a:extLst>
@@ -1229,8 +1221,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1355725" y="1298575"/>
-          <a:ext cx="0" cy="2111375"/>
+          <a:off x="1150554" y="1313903"/>
+          <a:ext cx="0" cy="1884307"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1337,14 +1329,14 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE10EE42-2D69-4F78-BF13-3656CE4F7AFE}"/>
             </a:ext>
           </a:extLst>
@@ -1353,8 +1345,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1498600" y="1298575"/>
-          <a:ext cx="0" cy="2111375"/>
+          <a:off x="1264854" y="1313903"/>
+          <a:ext cx="0" cy="1884307"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1461,14 +1453,14 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6E78D-F97C-45E0-A235-D211180652F9}"/>
             </a:ext>
           </a:extLst>
@@ -1477,8 +1469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1609725" y="1298575"/>
-          <a:ext cx="0" cy="2111375"/>
+          <a:off x="1359885" y="1313903"/>
+          <a:ext cx="0" cy="1884307"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1585,14 +1577,14 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="25" name="Group 24">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D88921-EAFB-47C1-8937-6B503D101F6F}"/>
             </a:ext>
           </a:extLst>
@@ -1601,8 +1593,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1765300" y="1301750"/>
-          <a:ext cx="187325" cy="2111375"/>
+          <a:off x="1515460" y="1317078"/>
+          <a:ext cx="172436" cy="1884307"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -1702,13 +1694,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
+      <xdr:colOff>657224</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1716,7 +1708,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5F5246-01D0-0BD1-8227-DCD26A15A4C3}"/>
             </a:ext>
           </a:extLst>
@@ -1725,8 +1717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200149" y="2181225"/>
-          <a:ext cx="752476" cy="219075"/>
+          <a:off x="1184274" y="2165350"/>
+          <a:ext cx="815976" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1747,7 +1739,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1781,7 +1773,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03CB30E-8AA8-4DA3-893F-CB47DE00D4C1}"/>
             </a:ext>
           </a:extLst>
@@ -1812,7 +1804,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1846,7 +1838,7 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F70D1C-DACB-45F5-95CF-298299BA3531}"/>
             </a:ext>
           </a:extLst>
@@ -1877,7 +1869,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1898,20 +1890,20 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>22224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38097</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="35" name="Group 34">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632855CA-56FF-4322-9080-E1A7BBE99A5C}"/>
             </a:ext>
           </a:extLst>
@@ -1920,8 +1912,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1123950" y="3876674"/>
-          <a:ext cx="190500" cy="447673"/>
+          <a:off x="918779" y="3668000"/>
+          <a:ext cx="190500" cy="429718"/>
           <a:chOff x="1047750" y="1435100"/>
           <a:chExt cx="0" cy="1857375"/>
         </a:xfrm>
@@ -2022,20 +2014,20 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Rectangle 37">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6296A6B-1644-4FE2-BA5D-E41E2610A63A}"/>
             </a:ext>
           </a:extLst>
@@ -2066,7 +2058,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="false" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -2087,9 +2079,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2127,7 +2119,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2233,12 +2225,12 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2262,9 +2254,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2288,7 +2280,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2323,7 +2315,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2341,7 +2333,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2366,7 +2358,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2375,53 +2367,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDDCAD2-19B6-4E14-AFEE-A572D35A857A}">
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="5" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="11.140625" customWidth="true"/>
+    <col min="5" max="6" width="10.42578125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="true"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="true" customWidth="true"/>
+    <col min="9" max="11" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="26.45" customHeight="true" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -2432,9 +2424,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>84</v>
@@ -2446,9 +2438,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1770</v>
@@ -2460,9 +2452,9 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1386</v>
@@ -2474,21 +2466,21 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0.97536945812807885</v>
+        <v>0.96595330739299612</v>
       </c>
       <c r="C18">
-        <v>0.96513157894736845</v>
+        <v>0.95512277730736661</v>
       </c>
       <c r="D18">
-        <v>0.9710926016658501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.96069287141905402</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2502,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19246</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>22064</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f>B23+21916</f>
         <v>41162</v>
@@ -2554,7 +2546,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>C23-B23</f>
         <v>102</v>
@@ -2574,60 +2566,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD8D491-A531-4985-B538-0A86893835BA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD8D491-A531-4985-B538-0A86893835BA}">
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I20"/>
+    <sheetView showGridLines="false" tabSelected="true" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="1.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="14.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
+    <col min="4" max="4" width="9.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.5703125" customWidth="true"/>
+    <col min="6" max="6" width="18.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.140625" customWidth="true"/>
+    <col min="8" max="8" width="1.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.85546875" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="5" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="19">
+      <c r="C2" s="13"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" ht="19.5" thickTop="true" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="18">
         <f>exp_arms!D24</f>
         <v>41123</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
@@ -2636,266 +2624,236 @@
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="15"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="19">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="5.45" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" ht="18.6" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
         <f>exp_arms!B24</f>
         <v>41162</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="20" t="s">
-        <v>18</v>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="16"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" ht="20.45" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" ht="13.5" customHeight="true" thickTop="true" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" ht="36" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="16"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="16"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="16"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6">
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" ht="8.45" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5">
         <f>exp_arms!C15</f>
         <v>80</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>exp_arms!D15</f>
         <v>93</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <f>exp_arms!B15</f>
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="16"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5">
         <f>exp_arms!C16</f>
         <v>1954</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>exp_arms!D16</f>
         <v>2580</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <f>exp_arms!B16</f>
         <v>1770</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="16"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="12">
         <f>ROUND(exp_arms!C17/exp_arms!C18,0)</f>
-        <v>1522</v>
-      </c>
-      <c r="G14" s="6">
+        <v>1538</v>
+      </c>
+      <c r="G14" s="12">
         <f>ROUND(exp_arms!D17/exp_arms!D18,0)</f>
-        <v>2041</v>
-      </c>
-      <c r="I14" s="6">
+        <v>2063</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="12">
         <f>ROUND(exp_arms!B17/exp_arms!B18,0)</f>
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="16"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="13">
-        <f>exp_arms!C17</f>
-        <v>1469</v>
-      </c>
-      <c r="G15" s="13">
-        <f>exp_arms!D17</f>
-        <v>1982</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13">
-        <f>exp_arms!B17</f>
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="16"/>
+        <v>1435</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <f>exp_arms!C24</f>
+        <v>41264</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
-        <f>exp_arms!C24</f>
-        <v>41264</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:10" ht="24.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="19"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:10" ht="9.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="19">
+      <c r="E16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" ht="24.6" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" ht="9.6" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
         <f>exp_arms!E24</f>
         <v>41499</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" ht="19.5" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E19:I19"/>
     <mergeCell ref="F6:I6"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="11" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.0" right="0.0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" scale="87" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>